--- a/data/quotes/ggal.xlsx
+++ b/data/quotes/ggal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H577"/>
+  <dimension ref="A1:H588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,13 +3014,13 @@
         <v>188.6</v>
       </c>
       <c r="F92" t="n">
-        <v>165022625.4</v>
+        <v>165022820.75</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H92" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="93">
@@ -3042,13 +3042,13 @@
         <v>198.95</v>
       </c>
       <c r="F93" t="n">
-        <v>184512831.6</v>
+        <v>257707074.1</v>
       </c>
       <c r="G93" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>1116</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="94">
@@ -16601,6 +16601,314 @@
       </c>
       <c r="H577" t="n">
         <v>4992</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>3816.25</v>
+      </c>
+      <c r="C578" t="n">
+        <v>3615</v>
+      </c>
+      <c r="D578" t="n">
+        <v>3825.9</v>
+      </c>
+      <c r="E578" t="n">
+        <v>3615</v>
+      </c>
+      <c r="F578" t="n">
+        <v>6438092387.9</v>
+      </c>
+      <c r="G578" t="n">
+        <v>1713115</v>
+      </c>
+      <c r="H578" t="n">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>3989</v>
+      </c>
+      <c r="C579" t="n">
+        <v>3873</v>
+      </c>
+      <c r="D579" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E579" t="n">
+        <v>3850</v>
+      </c>
+      <c r="F579" t="n">
+        <v>6971501378.9</v>
+      </c>
+      <c r="G579" t="n">
+        <v>1752851</v>
+      </c>
+      <c r="H579" t="n">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>4003</v>
+      </c>
+      <c r="C580" t="n">
+        <v>3990</v>
+      </c>
+      <c r="D580" t="n">
+        <v>4022</v>
+      </c>
+      <c r="E580" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F580" t="n">
+        <v>5073022575.6</v>
+      </c>
+      <c r="G580" t="n">
+        <v>1278755</v>
+      </c>
+      <c r="H580" t="n">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>3889</v>
+      </c>
+      <c r="C581" t="n">
+        <v>3995</v>
+      </c>
+      <c r="D581" t="n">
+        <v>3998</v>
+      </c>
+      <c r="E581" t="n">
+        <v>3880</v>
+      </c>
+      <c r="F581" t="n">
+        <v>6641303031.25</v>
+      </c>
+      <c r="G581" t="n">
+        <v>1685276</v>
+      </c>
+      <c r="H581" t="n">
+        <v>6161</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>4088</v>
+      </c>
+      <c r="C582" t="n">
+        <v>3880.1</v>
+      </c>
+      <c r="D582" t="n">
+        <v>4100</v>
+      </c>
+      <c r="E582" t="n">
+        <v>3830</v>
+      </c>
+      <c r="F582" t="n">
+        <v>5813425285.95</v>
+      </c>
+      <c r="G582" t="n">
+        <v>1446085</v>
+      </c>
+      <c r="H582" t="n">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>4200.9</v>
+      </c>
+      <c r="C583" t="n">
+        <v>4110</v>
+      </c>
+      <c r="D583" t="n">
+        <v>4205</v>
+      </c>
+      <c r="E583" t="n">
+        <v>4016</v>
+      </c>
+      <c r="F583" t="n">
+        <v>9302047470.450001</v>
+      </c>
+      <c r="G583" t="n">
+        <v>2254635</v>
+      </c>
+      <c r="H583" t="n">
+        <v>8724</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>4117.5</v>
+      </c>
+      <c r="C584" t="n">
+        <v>4239.45</v>
+      </c>
+      <c r="D584" t="n">
+        <v>4239.45</v>
+      </c>
+      <c r="E584" t="n">
+        <v>4050</v>
+      </c>
+      <c r="F584" t="n">
+        <v>9005214800.15</v>
+      </c>
+      <c r="G584" t="n">
+        <v>2190266</v>
+      </c>
+      <c r="H584" t="n">
+        <v>7406</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>3906</v>
+      </c>
+      <c r="C585" t="n">
+        <v>4100</v>
+      </c>
+      <c r="D585" t="n">
+        <v>4100</v>
+      </c>
+      <c r="E585" t="n">
+        <v>3890</v>
+      </c>
+      <c r="F585" t="n">
+        <v>9735366419.299999</v>
+      </c>
+      <c r="G585" t="n">
+        <v>2447759</v>
+      </c>
+      <c r="H585" t="n">
+        <v>8441</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>4004</v>
+      </c>
+      <c r="C586" t="n">
+        <v>3905</v>
+      </c>
+      <c r="D586" t="n">
+        <v>4055</v>
+      </c>
+      <c r="E586" t="n">
+        <v>3890.8</v>
+      </c>
+      <c r="F586" t="n">
+        <v>9337637896.85</v>
+      </c>
+      <c r="G586" t="n">
+        <v>2350223</v>
+      </c>
+      <c r="H586" t="n">
+        <v>6637</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>4077.95</v>
+      </c>
+      <c r="C587" t="n">
+        <v>4099</v>
+      </c>
+      <c r="D587" t="n">
+        <v>4099</v>
+      </c>
+      <c r="E587" t="n">
+        <v>4040.15</v>
+      </c>
+      <c r="F587" t="n">
+        <v>883192772.05</v>
+      </c>
+      <c r="G587" t="n">
+        <v>240</v>
+      </c>
+      <c r="H587" t="n">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>4104</v>
+      </c>
+      <c r="C588" t="n">
+        <v>4141</v>
+      </c>
+      <c r="D588" t="n">
+        <v>4180</v>
+      </c>
+      <c r="E588" t="n">
+        <v>4031</v>
+      </c>
+      <c r="F588" t="n">
+        <v>6930788477.7</v>
+      </c>
+      <c r="G588" t="n">
+        <v>1686361</v>
+      </c>
+      <c r="H588" t="n">
+        <v>5395</v>
       </c>
     </row>
   </sheetData>

--- a/data/quotes/ggal.xlsx
+++ b/data/quotes/ggal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H588"/>
+  <dimension ref="A1:H593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,13 +3014,13 @@
         <v>188.6</v>
       </c>
       <c r="F92" t="n">
-        <v>165022820.75</v>
+        <v>165251644</v>
       </c>
       <c r="G92" t="n">
-        <v>1000</v>
+        <v>171</v>
       </c>
       <c r="H92" t="n">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="93">
@@ -3042,13 +3042,13 @@
         <v>198.95</v>
       </c>
       <c r="F93" t="n">
-        <v>257707074.1</v>
+        <v>243601415.95</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="H93" t="n">
-        <v>1463</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="94">
@@ -16862,25 +16862,25 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>4077.95</v>
+        <v>4130</v>
       </c>
       <c r="C587" t="n">
         <v>4099</v>
       </c>
       <c r="D587" t="n">
-        <v>4099</v>
+        <v>4147.95</v>
       </c>
       <c r="E587" t="n">
         <v>4040.15</v>
       </c>
       <c r="F587" t="n">
-        <v>883192772.05</v>
+        <v>3934231755.95</v>
       </c>
       <c r="G587" t="n">
-        <v>240</v>
+        <v>958958</v>
       </c>
       <c r="H587" t="n">
-        <v>1929</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="588">
@@ -16909,6 +16909,146 @@
       </c>
       <c r="H588" t="n">
         <v>5395</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>4163</v>
+      </c>
+      <c r="C589" t="n">
+        <v>4150</v>
+      </c>
+      <c r="D589" t="n">
+        <v>4179.6</v>
+      </c>
+      <c r="E589" t="n">
+        <v>4020</v>
+      </c>
+      <c r="F589" t="n">
+        <v>6098469470.3</v>
+      </c>
+      <c r="G589" t="n">
+        <v>1492620</v>
+      </c>
+      <c r="H589" t="n">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>4319</v>
+      </c>
+      <c r="C590" t="n">
+        <v>4278.15</v>
+      </c>
+      <c r="D590" t="n">
+        <v>4398</v>
+      </c>
+      <c r="E590" t="n">
+        <v>4260</v>
+      </c>
+      <c r="F590" t="n">
+        <v>10611942957.55</v>
+      </c>
+      <c r="G590" t="n">
+        <v>2461038</v>
+      </c>
+      <c r="H590" t="n">
+        <v>7665</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>4355.15</v>
+      </c>
+      <c r="C591" t="n">
+        <v>4314.5</v>
+      </c>
+      <c r="D591" t="n">
+        <v>4415</v>
+      </c>
+      <c r="E591" t="n">
+        <v>4225</v>
+      </c>
+      <c r="F591" t="n">
+        <v>6501896343.9</v>
+      </c>
+      <c r="G591" t="n">
+        <v>1504369</v>
+      </c>
+      <c r="H591" t="n">
+        <v>7310</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>4377</v>
+      </c>
+      <c r="C592" t="n">
+        <v>4356.1</v>
+      </c>
+      <c r="D592" t="n">
+        <v>4428.5</v>
+      </c>
+      <c r="E592" t="n">
+        <v>4315</v>
+      </c>
+      <c r="F592" t="n">
+        <v>2479919124.5</v>
+      </c>
+      <c r="G592" t="n">
+        <v>200</v>
+      </c>
+      <c r="H592" t="n">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>4307.8</v>
+      </c>
+      <c r="C593" t="n">
+        <v>4368</v>
+      </c>
+      <c r="D593" t="n">
+        <v>4368</v>
+      </c>
+      <c r="E593" t="n">
+        <v>4260</v>
+      </c>
+      <c r="F593" t="n">
+        <v>11573945750.65</v>
+      </c>
+      <c r="G593" t="n">
+        <v>2699459</v>
+      </c>
+      <c r="H593" t="n">
+        <v>7565</v>
       </c>
     </row>
   </sheetData>

--- a/data/quotes/ggal.xlsx
+++ b/data/quotes/ggal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H593"/>
+  <dimension ref="A1:H599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,13 +3014,13 @@
         <v>188.6</v>
       </c>
       <c r="F92" t="n">
-        <v>165251644</v>
+        <v>165218170.75</v>
       </c>
       <c r="G92" t="n">
-        <v>171</v>
+        <v>1000</v>
       </c>
       <c r="H92" t="n">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="93">
@@ -3042,13 +3042,13 @@
         <v>198.95</v>
       </c>
       <c r="F93" t="n">
-        <v>243601415.95</v>
+        <v>297153360.8</v>
       </c>
       <c r="G93" t="n">
-        <v>96</v>
+        <v>934</v>
       </c>
       <c r="H93" t="n">
-        <v>1365</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="94">
@@ -17002,25 +17002,25 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>4377</v>
+        <v>4449.5</v>
       </c>
       <c r="C592" t="n">
         <v>4356.1</v>
       </c>
       <c r="D592" t="n">
-        <v>4428.5</v>
+        <v>4449.5</v>
       </c>
       <c r="E592" t="n">
         <v>4315</v>
       </c>
       <c r="F592" t="n">
-        <v>2479919124.5</v>
+        <v>11766212997.8</v>
       </c>
       <c r="G592" t="n">
-        <v>200</v>
+        <v>2673678</v>
       </c>
       <c r="H592" t="n">
-        <v>3484</v>
+        <v>7886</v>
       </c>
     </row>
     <row r="593">
@@ -17049,6 +17049,174 @@
       </c>
       <c r="H593" t="n">
         <v>7565</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>4269</v>
+      </c>
+      <c r="C594" t="n">
+        <v>4226.85</v>
+      </c>
+      <c r="D594" t="n">
+        <v>4346</v>
+      </c>
+      <c r="E594" t="n">
+        <v>4130</v>
+      </c>
+      <c r="F594" t="n">
+        <v>7076575226.5</v>
+      </c>
+      <c r="G594" t="n">
+        <v>1668331</v>
+      </c>
+      <c r="H594" t="n">
+        <v>6356</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>4055</v>
+      </c>
+      <c r="C595" t="n">
+        <v>4267</v>
+      </c>
+      <c r="D595" t="n">
+        <v>4267</v>
+      </c>
+      <c r="E595" t="n">
+        <v>4010</v>
+      </c>
+      <c r="F595" t="n">
+        <v>5163299095.2</v>
+      </c>
+      <c r="G595" t="n">
+        <v>1254932</v>
+      </c>
+      <c r="H595" t="n">
+        <v>6007</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>4087</v>
+      </c>
+      <c r="C596" t="n">
+        <v>4060</v>
+      </c>
+      <c r="D596" t="n">
+        <v>4180</v>
+      </c>
+      <c r="E596" t="n">
+        <v>4030</v>
+      </c>
+      <c r="F596" t="n">
+        <v>5843763236.55</v>
+      </c>
+      <c r="G596" t="n">
+        <v>1421501</v>
+      </c>
+      <c r="H596" t="n">
+        <v>6225</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>4170</v>
+      </c>
+      <c r="C597" t="n">
+        <v>4073</v>
+      </c>
+      <c r="D597" t="n">
+        <v>4180</v>
+      </c>
+      <c r="E597" t="n">
+        <v>4040.5</v>
+      </c>
+      <c r="F597" t="n">
+        <v>2235060790.6</v>
+      </c>
+      <c r="G597" t="n">
+        <v>11</v>
+      </c>
+      <c r="H597" t="n">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>4262</v>
+      </c>
+      <c r="C598" t="n">
+        <v>4330</v>
+      </c>
+      <c r="D598" t="n">
+        <v>4330</v>
+      </c>
+      <c r="E598" t="n">
+        <v>4250</v>
+      </c>
+      <c r="F598" t="n">
+        <v>3294901226.5</v>
+      </c>
+      <c r="G598" t="n">
+        <v>10</v>
+      </c>
+      <c r="H598" t="n">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>4368</v>
+      </c>
+      <c r="C599" t="n">
+        <v>4349</v>
+      </c>
+      <c r="D599" t="n">
+        <v>4410</v>
+      </c>
+      <c r="E599" t="n">
+        <v>4220</v>
+      </c>
+      <c r="F599" t="n">
+        <v>6134806038.2</v>
+      </c>
+      <c r="G599" t="n">
+        <v>1409027</v>
+      </c>
+      <c r="H599" t="n">
+        <v>6494</v>
       </c>
     </row>
   </sheetData>
